--- a/0_Snapshot Testing Dataset.xlsx
+++ b/0_Snapshot Testing Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsrocha/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hsrocha/GitRepos/SnapshotTestingDataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDCD5107-EF51-5A4D-ADBE-82390C3AA37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785E93A3-42A1-E247-9DCB-48C9EF45E4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="500" windowWidth="24360" windowHeight="16940" xr2:uid="{C68F6057-B582-4540-98BB-E1F4AC3DB301}"/>
   </bookViews>
@@ -5513,9 +5513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95BEE4F-0956-754D-B465-24F6B95DABFF}">
   <dimension ref="A1:Z687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
